--- a/data_quarter/zb/国民经济核算/货物服务消费占比.xlsx
+++ b/data_quarter/zb/国民经济核算/货物服务消费占比.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,11 +444,21 @@
           <t>居民消费支出中货物消费占比_累计值</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>居民消费支出中服务消费占比</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>居民消费支出中货物消费占比</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -457,11 +467,17 @@
       <c r="C2" t="n">
         <v>48.4</v>
       </c>
+      <c r="D2" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>48.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -470,11 +486,17 @@
       <c r="C3" t="n">
         <v>48.4</v>
       </c>
+      <c r="D3" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>48.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -483,11 +505,17 @@
       <c r="C4" t="n">
         <v>46.1</v>
       </c>
+      <c r="D4" t="n">
+        <v>2.299999999999997</v>
+      </c>
+      <c r="E4" t="n">
+        <v>46.1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -496,11 +524,17 @@
       <c r="C5" t="n">
         <v>46.2</v>
       </c>
+      <c r="D5" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1000000000000014</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -509,11 +543,17 @@
       <c r="C6" t="n">
         <v>46.2</v>
       </c>
+      <c r="D6" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -522,11 +562,17 @@
       <c r="C7" t="n">
         <v>46.5</v>
       </c>
+      <c r="D7" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2999999999999972</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -535,37 +581,55 @@
       <c r="C8" t="n">
         <v>50.2629223407476</v>
       </c>
+      <c r="D8" t="n">
+        <v>49.7370776592524</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.7629223407476</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.5058909043897</v>
+        <v>50.3882900177488</v>
       </c>
       <c r="C9" t="n">
-        <v>48.4941090956103</v>
+        <v>49.6117099822512</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6512123584964016</v>
+      </c>
+      <c r="E9" t="n">
+        <v>49.6117099822512</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50.3882900177488</v>
+        <v>51.5058909043897</v>
       </c>
       <c r="C10" t="n">
-        <v>49.6117099822512</v>
+        <v>48.4941090956103</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.117600886640901</v>
+      </c>
+      <c r="E10" t="n">
+        <v>48.4941090956103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -574,11 +638,17 @@
       <c r="C11" t="n">
         <v>47.9478519324267</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.5462571631835971</v>
+      </c>
+      <c r="E11" t="n">
+        <v>47.9478519324267</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -587,37 +657,55 @@
       <c r="C12" t="n">
         <v>47.0377292346807</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.9101226977460044</v>
+      </c>
+      <c r="E12" t="n">
+        <v>47.0377292346807</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.3455066400223</v>
+        <v>52.6249062486972</v>
       </c>
       <c r="C13" t="n">
-        <v>47.6544933599777</v>
+        <v>47.3750937513028</v>
+      </c>
+      <c r="D13" t="n">
+        <v>52.6249062486972</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3373645166221024</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52.6249062486972</v>
+        <v>52.3455066400223</v>
       </c>
       <c r="C14" t="n">
-        <v>47.3750937513028</v>
+        <v>47.6544933599777</v>
+      </c>
+      <c r="D14" t="n">
+        <v>52.3455066400223</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2793996086749004</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -625,6 +713,12 @@
       </c>
       <c r="C15" t="n">
         <v>48.0324095004</v>
+      </c>
+      <c r="D15" t="n">
+        <v>51.9675904996</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3779161404223004</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/国民经济核算/货物服务消费占比.xlsx
+++ b/data_quarter/zb/国民经济核算/货物服务消费占比.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,16 +444,6 @@
           <t>居民消费支出中货物消费占比_累计值</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>居民消费支出中服务消费占比</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>居民消费支出中货物消费占比</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -467,12 +457,6 @@
       <c r="C2" t="n">
         <v>48.4</v>
       </c>
-      <c r="D2" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="E2" t="n">
-        <v>48.4</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -486,12 +470,6 @@
       <c r="C3" t="n">
         <v>48.4</v>
       </c>
-      <c r="D3" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>48.4</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -505,17 +483,11 @@
       <c r="C4" t="n">
         <v>46.1</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="E4" t="n">
-        <v>46.1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -524,17 +496,11 @@
       <c r="C5" t="n">
         <v>46.2</v>
       </c>
-      <c r="D5" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1000000000000014</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -543,12 +509,6 @@
       <c r="C6" t="n">
         <v>46.2</v>
       </c>
-      <c r="D6" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>46.2</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -562,12 +522,6 @@
       <c r="C7" t="n">
         <v>46.5</v>
       </c>
-      <c r="D7" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2999999999999972</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,49 +535,31 @@
       <c r="C8" t="n">
         <v>50.2629223407476</v>
       </c>
-      <c r="D8" t="n">
-        <v>49.7370776592524</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.7629223407476</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.3882900177488</v>
+        <v>51.5058909043897</v>
       </c>
       <c r="C9" t="n">
-        <v>49.6117099822512</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.6512123584964016</v>
-      </c>
-      <c r="E9" t="n">
-        <v>49.6117099822512</v>
+        <v>48.4941090956103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.5058909043897</v>
+        <v>50.3882900177488</v>
       </c>
       <c r="C10" t="n">
-        <v>48.4941090956103</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.117600886640901</v>
-      </c>
-      <c r="E10" t="n">
-        <v>48.4941090956103</v>
+        <v>49.6117099822512</v>
       </c>
     </row>
     <row r="11">
@@ -638,12 +574,6 @@
       <c r="C11" t="n">
         <v>47.9478519324267</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.5462571631835971</v>
-      </c>
-      <c r="E11" t="n">
-        <v>47.9478519324267</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -657,49 +587,31 @@
       <c r="C12" t="n">
         <v>47.0377292346807</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.9101226977460044</v>
-      </c>
-      <c r="E12" t="n">
-        <v>47.0377292346807</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.6249062486972</v>
+        <v>52.3455066400223</v>
       </c>
       <c r="C13" t="n">
-        <v>47.3750937513028</v>
-      </c>
-      <c r="D13" t="n">
-        <v>52.6249062486972</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.3373645166221024</v>
+        <v>47.6544933599777</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52.3455066400223</v>
+        <v>52.6249062486972</v>
       </c>
       <c r="C14" t="n">
-        <v>47.6544933599777</v>
-      </c>
-      <c r="D14" t="n">
-        <v>52.3455066400223</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.2793996086749004</v>
+        <v>47.3750937513028</v>
       </c>
     </row>
     <row r="15">
@@ -713,12 +625,6 @@
       </c>
       <c r="C15" t="n">
         <v>48.0324095004</v>
-      </c>
-      <c r="D15" t="n">
-        <v>51.9675904996</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.3779161404223004</v>
       </c>
     </row>
   </sheetData>
